--- a/biology/Botanique/Merja_Zerga/Merja_Zerga.xlsx
+++ b/biology/Botanique/Merja_Zerga/Merja_Zerga.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Merja Zerga est une lagune marocaine protégée pour la préservation de la biodiversité[Où ?]. Il[Qui ?] relève de la Convention de Ramsar en 1980.
 </t>
@@ -511,7 +523,9 @@
           <t>Situation géographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Merja Zerga est située à l'extrémité nord-ouest de la plaine du Gharb, juste au sud du village balnéaire de Moulay Bousselham à 70 km au nord de Kénitra et à 35 km au sud de Larache. Elle dépend des communes de Moulay Bousselham et Sidi Mohamed Lahmer. 
 La Merja Zerga mesure entre 8 et 9 km de longueur pour une largeur d'environ 5 km. Sa profondeur varie de 0,50 m à 1,50 m.
@@ -545,76 +559,188 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Mammifères
-Mus musculus ;
+          <t>Mammifères</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Mus musculus ;
 Gerbillus campestris ;
 Lepus capensis, le Lièvre du Cap ;
-Lutra lutra, la Loutre d'Europe qui est l'animal le plus menacé de la réserve.
-Poissons
-On dénombre dix espèces de poissons dont Anguilla anguilla.
-Coquillages
-Venerupis decussatus.
-Reptiles
-Les reptiles terrestres sont bien représentés avec douze espèces telles que :
+Lutra lutra, la Loutre d'Europe qui est l'animal le plus menacé de la réserve.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Merja_Zerga</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Merja_Zerga</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Faune</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Poissons</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On dénombre dix espèces de poissons dont Anguilla anguilla.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Merja_Zerga</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Merja_Zerga</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Faune</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Coquillages</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Venerupis decussatus.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Merja_Zerga</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Merja_Zerga</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Faune</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Reptiles</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les reptiles terrestres sont bien représentés avec douze espèces telles que :
 Acanthodactylus erythrurus ;
 Chalcides mionecton.
 On trouve également des tortues terrestres comme la Tortue grecque terrestre.
 Les reptiles aquatiques sont représentés par les tortues d'eau douce dont Mauremys leprosa.
-Oiseaux</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Merja_Zerga</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Merja_Zerga</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Flore et végétation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Merja_Zerga</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Merja_Zerga</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Zone menacée</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
